--- a/src/main/resources/file/Commodity.xlsx
+++ b/src/main/resources/file/Commodity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500"/>
+    <workbookView windowWidth="28455" windowHeight="12045" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <t>*商品图片（1-10张）</t>
   </si>
   <si>
-    <t>*品牌</t>
+    <t>*商品品牌</t>
   </si>
   <si>
     <t>*商品一级分类</t>
@@ -43,7 +43,7 @@
     <t>*商品三级分类</t>
   </si>
   <si>
-    <t>*产地</t>
+    <t>*商品产地</t>
   </si>
   <si>
     <t>*库存单位</t>
@@ -58,16 +58,16 @@
     <t>*箱规</t>
   </si>
   <si>
-    <t>*透云供货价</t>
-  </si>
-  <si>
-    <t>*门店批发价</t>
+    <t>*供货价</t>
+  </si>
+  <si>
+    <t>*批发价</t>
   </si>
   <si>
     <t>*生产日期</t>
   </si>
   <si>
-    <t>*有效期</t>
+    <t>*有效期(天)</t>
   </si>
   <si>
     <t>*最小起订量</t>
@@ -82,7 +82,7 @@
     <t>商品标签</t>
   </si>
   <si>
-    <t>*商品简介</t>
+    <t>*商品说明</t>
   </si>
   <si>
     <t>582351325</t>
@@ -138,13 +138,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-d"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-d"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -163,39 +163,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,6 +186,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -216,30 +210,65 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,14 +292,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,28 +301,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,121 +329,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,61 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,16 +538,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -562,16 +562,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -588,6 +597,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,175 +635,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -791,27 +791,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,8 +1141,8 @@
   <sheetPr/>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -1155,8 +1155,10 @@
     <col min="7" max="7" width="13.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="16.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="12.4916666666667" customWidth="1"/>
     <col min="14" max="14" width="14.3333333333333" customWidth="1"/>
     <col min="17" max="17" width="18.9" style="4" customWidth="1"/>
+    <col min="18" max="18" width="18.1166666666667" customWidth="1"/>
     <col min="19" max="19" width="15.5" customWidth="1"/>
     <col min="20" max="20" width="25.3333333333333" customWidth="1"/>
     <col min="21" max="22" width="19" customWidth="1"/>

--- a/src/main/resources/file/Commodity.xlsx
+++ b/src/main/resources/file/Commodity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28455" windowHeight="12045" tabRatio="500"/>
+    <workbookView windowWidth="27975" windowHeight="10875" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,18 @@
     <t>纯牛奶</t>
   </si>
   <si>
-    <t>01.jpg,05.gif,06.png,03.jpeg</t>
+    <r>
+      <t xml:space="preserve">01.jpg,05.gif,06.png,03.jpeg
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（多张图片用英文逗号隔开）</t>
+    </r>
   </si>
   <si>
     <t>伊利</t>
@@ -138,15 +149,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-d"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-d"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,6 +174,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -172,9 +197,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,78 +239,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -266,6 +247,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -274,11 +271,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,27 +325,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -329,25 +347,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,13 +485,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,133 +515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,6 +552,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,24 +591,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,16 +631,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,66 +653,49 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,98 +704,104 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -791,27 +809,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,8 +1162,8 @@
   <sheetPr/>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -1214,7 +1235,7 @@
       <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="5" t="s">
@@ -1243,13 +1264,13 @@
       <c r="B2" s="8">
         <v>69232345466700</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -1285,7 +1306,7 @@
       <c r="P2" s="7">
         <v>8.09</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="12">
         <v>43000</v>
       </c>
       <c r="R2" s="9">
@@ -1303,7 +1324,7 @@
       <c r="V2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="13" t="s">
         <v>38</v>
       </c>
     </row>

--- a/src/main/resources/file/Commodity.xlsx
+++ b/src/main/resources/file/Commodity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27975" windowHeight="10875" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -58,10 +58,10 @@
     <t>*箱规</t>
   </si>
   <si>
-    <t>*供货价</t>
-  </si>
-  <si>
-    <t>*批发价</t>
+    <t>*透云进货价</t>
+  </si>
+  <si>
+    <t>*app订货价</t>
   </si>
   <si>
     <t>*生产日期</t>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">01.jpg,05.gif,06.png,03.jpeg
 </t>
     </r>
@@ -99,6 +105,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>（多张图片用英文逗号隔开）</t>
@@ -149,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-d"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
@@ -182,52 +189,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,76 +270,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -325,11 +286,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -347,31 +353,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +455,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,139 +491,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,6 +571,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -585,47 +617,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,151 +644,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,7 +1169,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>

--- a/src/main/resources/file/Commodity.xlsx
+++ b/src/main/resources/file/Commodity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500"/>
+    <workbookView windowWidth="27975" windowHeight="10875" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>*有效期(天)</t>
   </si>
   <si>
-    <t>*最小起订量</t>
+    <t>*起订量</t>
   </si>
   <si>
     <t>企业名称</t>
@@ -92,13 +92,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">01.jpg,05.gif,06.png,03.jpeg
+      <t xml:space="preserve">01.jpg,06.png,03.jpeg
 </t>
     </r>
     <r>
@@ -133,10 +127,32 @@
     <t>ml</t>
   </si>
   <si>
-    <t>200ml/盒</t>
-  </si>
-  <si>
-    <t>12盒/箱</t>
+    <r>
+      <t xml:space="preserve">200ml/盒
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（ml 与规格单位一致）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12盒/箱
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（盒与库存单位一致）</t>
+    </r>
   </si>
   <si>
     <t>伊利集团</t>
@@ -157,14 +173,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-d"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-d"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,6 +197,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
@@ -188,35 +217,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -224,31 +247,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,11 +285,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,11 +323,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,38 +348,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,6 +359,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -353,55 +382,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,127 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,8 +594,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,17 +626,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,6 +649,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -639,175 +683,160 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -815,30 +844,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1169,7 +1201,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -1183,6 +1215,7 @@
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="16.6666666666667" customWidth="1"/>
     <col min="11" max="11" width="12.4916666666667" customWidth="1"/>
+    <col min="13" max="13" width="21.0833333333333" customWidth="1"/>
     <col min="14" max="14" width="14.3333333333333" customWidth="1"/>
     <col min="17" max="17" width="18.9" style="4" customWidth="1"/>
     <col min="18" max="18" width="18.1166666666667" customWidth="1"/>
@@ -1241,7 +1274,7 @@
       <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="12" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="5" t="s">
@@ -1270,7 +1303,7 @@
       <c r="B2" s="8">
         <v>69232345466700</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -1300,10 +1333,10 @@
       <c r="L2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="11" t="s">
         <v>34</v>
       </c>
       <c r="O2" s="7">
@@ -1312,7 +1345,7 @@
       <c r="P2" s="7">
         <v>8.09</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="13">
         <v>43000</v>
       </c>
       <c r="R2" s="9">
@@ -1330,7 +1363,7 @@
       <c r="V2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="14" t="s">
         <v>38</v>
       </c>
     </row>
